--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_14_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_14_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56091.38212320933</v>
+        <v>11138340.17878705</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56091.38212320933</v>
+        <v>11138340.17878705</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>39177.70885888479</v>
+        <v>4675119.057779347</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>39177.70885888479</v>
+        <v>4675119.057779347</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1610085127.431302</v>
+        <v>62931250.10090822</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13320.36431730146</v>
+        <v>1455065.638683829</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25794.56733085048</v>
+        <v>2777411.531033053</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>38268.77034439951</v>
+        <v>4099757.423382279</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>52472.19199982718</v>
+        <v>5189411.397193991</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>65461.60696894516</v>
+        <v>6441016.338329419</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>78451.02193806315</v>
+        <v>7692621.27946484</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>91552.63751501951</v>
+        <v>9027248.497620221</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>104548.3734960163</v>
+        <v>10340805.67617964</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>118719.5346674854</v>
+        <v>11399636.78367525</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>131229.7340079398</v>
+        <v>12721982.67602447</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>143739.9333483941</v>
+        <v>14044328.56837369</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>156250.1326888485</v>
+        <v>15366674.46072292</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>168760.3320293029</v>
+        <v>16689020.35307215</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>183711.5281127756</v>
+        <v>17683145.33947235</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>203522.682254888</v>
+        <v>17979483.16536801</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>255.0000000000262</v>
@@ -27052,13 +27052,13 @@
         <v>80.00000000002676</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>170.9999999999445</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27147,16 +27147,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>191</v>
